--- a/slurry-properties/slurry_prop.xlsx
+++ b/slurry-properties/slurry_prop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au583430_uni_au_dk/Documents/Documents/TFRN/updating GD 2023/chapter 7, shared/ATMS/manure properties/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au583430_uni_au_dk/Documents/Documents/GitHub/GD-NH3/slurry-properties/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{AF90D23A-B6AC-4EC3-B61A-2D923D4CC57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F178D4-7D01-4700-B52A-83066198CF9F}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{AF90D23A-B6AC-4EC3-B61A-2D923D4CC57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9C52B2-F1DF-4888-A443-3C54FC01C152}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="4335" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="slurry.prop" sheetId="1" r:id="rId1"/>
@@ -129,18 +129,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,7 +151,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,20 +434,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -476,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -499,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -522,7 +516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -545,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -568,7 +562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -589,7 +583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
